--- a/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94307E5B-1C4F-4DF8-B9B1-4DE2AFF5883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C8B2E9-B6CA-4E1A-8E5C-779A414F12CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{24277750-40A5-4C2B-A0D8-77FB9C7A39B5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F72FC9A5-17DD-4CB0-8DAB-50CEB21A01D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,127 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Porque creo que no es necesaria</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Porque me parece que no es segura</t>
+  </si>
+  <si>
+    <t>Porque no me han informado sobre esta vacuna</t>
+  </si>
+  <si>
+    <t>Porque se me ha olvidado</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Otros</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>77,36%</t>
@@ -83,12 +200,6 @@
     <t>77,17%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>77,31%</t>
   </si>
   <si>
@@ -98,108 +209,66 @@
     <t>92,29%</t>
   </si>
   <si>
-    <t>Porque creo que no es necesaria</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>Porque me parece que no es segura</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>Porque no me han informado sobre esta vacuna</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>Porque se me ha olvidado</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
     <t>38,84%</t>
   </si>
   <si>
@@ -215,73 +284,76 @@
     <t>22,52%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>78,66%</t>
@@ -309,78 +381,6 @@
   </si>
   <si>
     <t>87,23%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D4431-ECD4-435E-B89E-D6087062D6CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5607B-53F5-4726-AA99-2A8D284E4B88}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -890,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5012</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -905,91 +905,87 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6572</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -998,28 +994,26 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1028,115 +1022,111 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1145,123 +1135,121 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>6479</v>
+        <v>765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>8500</v>
+        <v>765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1562</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>1986</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1270,49 +1258,49 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1321,130 +1309,130 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>347</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>424</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1562</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1986</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>347</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>347</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1447,13 @@
         <v>866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -1474,13 +1462,13 @@
         <v>1909</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -1489,87 +1477,87 @@
         <v>2775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>559</v>
+        <v>1095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2692</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>3252</v>
+        <v>1095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>881</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1578,85 +1566,85 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>881</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1665,94 +1653,94 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>5012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>737</v>
+        <v>1560</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>737</v>
+        <v>6572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,106 +1749,108 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>1440</v>
+        <v>6479</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>3429</v>
+        <v>2021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N21" s="7">
-        <v>4869</v>
+        <v>8500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1869,26 +1859,28 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -1897,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1918,47 +1910,49 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1676</v>
+      </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1967,26 +1961,28 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1995,62 +1991,64 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>3521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2252</v>
+      </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>5774</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,106 +2057,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D27" s="7">
-        <v>765</v>
+        <v>3521</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3928</v>
+      </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N27" s="7">
-        <v>765</v>
+        <v>7450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>3521</v>
+        <v>881</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M28" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>5774</v>
+        <v>881</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2167,14 +2167,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2197,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2218,14 +2218,14 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
@@ -2233,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2269,94 +2269,94 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>1676</v>
+        <v>737</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>1676</v>
+        <v>737</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>2692</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>3252</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,49 +2365,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1440</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5</v>
+      </c>
+      <c r="I33" s="7">
+        <v>3429</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="7">
         <v>7</v>
       </c>
-      <c r="D33" s="7">
-        <v>3521</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="7">
-        <v>6</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3928</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="7">
-        <v>13</v>
-      </c>
       <c r="N33" s="7">
-        <v>7450</v>
+        <v>4869</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,10 +2418,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>10282</v>
+        <v>1976</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>82</v>
@@ -2433,235 +2433,235 @@
         <v>84</v>
       </c>
       <c r="H34" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>8066</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1976</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="7">
-        <v>34</v>
-      </c>
-      <c r="N34" s="7">
-        <v>18348</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>1976</v>
+        <v>442</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>442</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="P35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M35" s="7">
-        <v>3</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1976</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="7">
+        <v>3</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2137</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="7">
+        <v>4</v>
+      </c>
+      <c r="N36" s="7">
+        <v>2509</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1</v>
-      </c>
-      <c r="N36" s="7">
-        <v>442</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1084</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2137</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>2</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1084</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="P37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2509</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>10282</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="7">
+        <v>14</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8066</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1084</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>34</v>
+      </c>
+      <c r="N38" s="7">
+        <v>18348</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M38" s="7">
-        <v>2</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1084</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>114</v>
@@ -2679,13 +2679,13 @@
         <v>13072</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H39" s="7">
         <v>19</v>
@@ -2694,13 +2694,13 @@
         <v>11287</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M39" s="7">
         <v>44</v>
@@ -2709,13 +2709,13 @@
         <v>24359</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C8B2E9-B6CA-4E1A-8E5C-779A414F12CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E838EF-2030-461A-AC5A-3F029958FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F72FC9A5-17DD-4CB0-8DAB-50CEB21A01D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B0ACA8-EC94-4CE5-B75A-40DC2F4B5135}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="118">
   <si>
     <t>Menores que no se han vacunado por el motivo siguiente en 2023 (Tasa respuesta: 2,29%)</t>
   </si>
@@ -68,48 +68,75 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Porque se me ha olvidado</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Porque no me han informado sobre esta vacuna</t>
+  </si>
+  <si>
+    <t>Porque me parece que no es segura</t>
+  </si>
+  <si>
     <t>Porque creo que no es necesaria</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Porque me parece que no es segura</t>
-  </si>
-  <si>
-    <t>Porque no me han informado sobre esta vacuna</t>
-  </si>
-  <si>
-    <t>Porque se me ha olvidado</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -125,262 +152,244 @@
     <t>65,5%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>51,87%</t>
+    <t>51,45%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>40,78%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
     <t>23,25%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>85,38%</t>
+    <t>85,91%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>58,13%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -391,7 +400,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -487,39 +496,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -571,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -682,13 +691,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -697,6 +699,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -761,19 +770,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5607B-53F5-4726-AA99-2A8D284E4B88}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B1557-55D8-4E4A-9C9B-8212C08D9883}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -890,10 +919,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -918,10 +947,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -945,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -973,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -994,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1022,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1043,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1071,34 +1100,34 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>765</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1114,19 +1143,19 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1141,13 +1170,13 @@
         <v>765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1169,13 +1198,13 @@
         <v>765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1186,49 +1215,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1986</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,55 +1266,55 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>442</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1294,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1309,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1324,115 +1353,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>347</v>
+        <v>442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1562</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1986</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1476,13 @@
         <v>866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -1462,13 +1491,13 @@
         <v>1909</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -1477,13 +1506,13 @@
         <v>2775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,49 +1523,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>1095</v>
+        <v>5012</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1560</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>1095</v>
+        <v>6572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1566,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1581,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -1602,13 +1631,13 @@
         <v>372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1617,13 +1646,13 @@
         <v>461</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1632,19 +1661,19 @@
         <v>833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1653,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1668,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1683,64 +1712,64 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>5012</v>
+        <v>1095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>6572</v>
+        <v>1095</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1784,13 @@
         <v>6479</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -1770,13 +1799,13 @@
         <v>2021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -1785,66 +1814,66 @@
         <v>8500</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>3521</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>5774</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1874,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -1889,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1910,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -1925,13 +1954,13 @@
         <v>1676</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -1940,19 +1969,19 @@
         <v>1676</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1961,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1976,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1991,64 +2020,64 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>3521</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M26" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>5774</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2092,13 @@
         <v>3521</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2078,13 +2107,13 @@
         <v>3928</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -2093,18 +2122,18 @@
         <v>7450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2113,46 +2142,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>881</v>
+        <v>559</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>2692</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>881</v>
+        <v>3252</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,49 +2196,49 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2218,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2233,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2248,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2269,94 +2298,94 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>559</v>
+        <v>881</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H32" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>2692</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M32" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>3252</v>
+        <v>881</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2400,13 @@
         <v>1440</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2386,13 +2415,13 @@
         <v>3429</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -2401,13 +2430,13 @@
         <v>4869</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,49 +2447,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D34" s="7">
-        <v>1976</v>
+        <v>10282</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>8066</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="N34" s="7">
-        <v>1976</v>
+        <v>18348</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,55 +2498,55 @@
         <v>15</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>442</v>
+        <v>1084</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2526,13 +2555,13 @@
         <v>372</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -2541,13 +2570,13 @@
         <v>2137</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -2556,115 +2585,115 @@
         <v>2509</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>1084</v>
+        <v>442</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C38" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>10282</v>
+        <v>1976</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="7">
-        <v>14</v>
-      </c>
-      <c r="I38" s="7">
-        <v>8066</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="M38" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>18348</v>
+        <v>1976</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2708,13 @@
         <v>13072</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <v>19</v>
@@ -2694,13 +2723,13 @@
         <v>11287</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>44</v>
@@ -2709,13 +2738,18 @@
         <v>24359</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E838EF-2030-461A-AC5A-3F029958FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D39A62B-BFC7-4BE2-8642-26992499167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B0ACA8-EC94-4CE5-B75A-40DC2F4B5135}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F831EE0D-E6A9-4AC8-8D17-1EF1EEB9A05C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -104,7 +104,7 @@
     <t>Porque creo que no es necesaria</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>48,94%</t>
@@ -119,7 +119,7 @@
     <t>71,56%</t>
   </si>
   <si>
-    <t>28,24%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -134,7 +134,7 @@
     <t>12,52%</t>
   </si>
   <si>
-    <t>63,82%</t>
+    <t>62,21%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -149,19 +149,19 @@
     <t>15,93%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>77,17%</t>
@@ -173,10 +173,10 @@
     <t>77,31%</t>
   </si>
   <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -188,7 +188,7 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>31,02%</t>
+    <t>32,73%</t>
   </si>
   <si>
     <t>22,83%</t>
@@ -200,22 +200,22 @@
     <t>9,8%</t>
   </si>
   <si>
-    <t>30,74%</t>
+    <t>29,18%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>51,45%</t>
+    <t>48,42%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -224,13 +224,13 @@
     <t>57,34%</t>
   </si>
   <si>
-    <t>14,09%</t>
+    <t>14,02%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>41,87%</t>
+    <t>42,64%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -239,13 +239,13 @@
     <t>42,66%</t>
   </si>
   <si>
-    <t>85,91%</t>
+    <t>85,98%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>58,13%</t>
+    <t>57,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -257,25 +257,25 @@
     <t>78,52%</t>
   </si>
   <si>
-    <t>25,53%</t>
+    <t>26,91%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>23,53%</t>
+    <t>23,37%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>74,47%</t>
+    <t>73,09%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>60,27%</t>
+    <t>62,13%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -287,34 +287,34 @@
     <t>18,09%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>69,67%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -323,43 +323,43 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>33,9%</t>
+    <t>36,44%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>17,68%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>15,37%</t>
+    <t>16,26%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>21,1%</t>
+    <t>19,46%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -368,7 +368,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>11,68%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>15,12%</t>
@@ -377,16 +377,16 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>38,48%</t>
+    <t>37,14%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B1557-55D8-4E4A-9C9B-8212C08D9883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F198450F-8255-45C5-82F8-3061D477EE1B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D39A62B-BFC7-4BE2-8642-26992499167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E07B4B-E47B-456B-8BD5-80CE59E6472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F831EE0D-E6A9-4AC8-8D17-1EF1EEB9A05C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B4C1D421-2F9F-482F-94DC-F8D3B68A1BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="118">
-  <si>
-    <t>Menores que no se han vacunado por el motivo siguiente en 2023 (Tasa respuesta: 2,29%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="114">
+  <si>
+    <t>Menores según el motivo por el que no se han vacunado en 2023 (Tasa respuesta: 2,29%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,328 +65,316 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
   </si>
   <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>Porque se me ha olvidado</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>Porque no me han informado sobre esta vacuna</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Porque me parece que no es segura</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>Porque creo que no es necesaria</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Porque se me ha olvidado</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Porque no me han informado sobre esta vacuna</t>
-  </si>
-  <si>
-    <t>Porque me parece que no es segura</t>
-  </si>
-  <si>
-    <t>Porque creo que no es necesaria</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -801,8 +789,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F198450F-8255-45C5-82F8-3061D477EE1B}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A4971C-F7D5-4549-BDBC-7E0177B1DE04}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -919,10 +907,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>765</v>
+        <v>1554</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -934,29 +922,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1290</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>765</v>
+        <v>2843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -965,56 +955,58 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1023,26 +1015,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1051,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1072,47 +1066,49 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>464</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1121,26 +1117,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1149,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1164,106 +1162,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>765</v>
+        <v>1904</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1754</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>765</v>
+        <v>3657</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>424</v>
+        <v>1662</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>1562</v>
+        <v>5089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>1986</v>
+        <v>6750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1272,115 +1272,115 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1389,34 +1389,34 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1425,43 +1425,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1470,108 +1470,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>866</v>
+        <v>2123</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>13</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
       <c r="I15" s="7">
-        <v>1909</v>
+        <v>6535</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>2775</v>
+        <v>8658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>5012</v>
+        <v>2248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>1560</v>
+        <v>3847</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="7">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
+      <c r="N16" s="7">
+        <v>6095</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6572</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1580,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1610,70 +1610,70 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>372</v>
+        <v>1650</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>833</v>
+        <v>1650</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1712,34 +1712,34 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1748,28 +1748,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,123 +1778,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3898</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3847</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="7">
         <v>13</v>
       </c>
-      <c r="D21" s="7">
-        <v>6479</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>17</v>
-      </c>
       <c r="N21" s="7">
-        <v>8500</v>
+        <v>7745</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>3521</v>
+        <v>2585</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>2252</v>
+        <v>578</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>5774</v>
+        <v>3162</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1903,34 +1903,34 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1939,49 +1939,49 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1990,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2041,43 +2041,43 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,210 +2086,210 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3306</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1513</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="7">
         <v>7</v>
       </c>
-      <c r="D27" s="7">
-        <v>3521</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>6</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3928</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>13</v>
-      </c>
       <c r="N27" s="7">
-        <v>7450</v>
+        <v>4819</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>559</v>
+        <v>8048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I28" s="7">
-        <v>2692</v>
+        <v>10803</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="M28" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="N28" s="7">
-        <v>3252</v>
+        <v>18851</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>737</v>
+        <v>1071</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>2493</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2298,94 +2298,94 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>881</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>881</v>
+        <v>2001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,370 +2394,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D33" s="7">
-        <v>1440</v>
+        <v>11231</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H33" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I33" s="7">
-        <v>3429</v>
+        <v>13649</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M33" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N33" s="7">
-        <v>4869</v>
+        <v>24880</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>20</v>
-      </c>
-      <c r="D34" s="7">
-        <v>10282</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="7">
-        <v>14</v>
-      </c>
-      <c r="I34" s="7">
-        <v>8066</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M34" s="7">
-        <v>34</v>
-      </c>
-      <c r="N34" s="7">
-        <v>18348</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="7">
-        <v>2</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1084</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M35" s="7">
-        <v>2</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1084</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>372</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="7">
-        <v>3</v>
-      </c>
-      <c r="I36" s="7">
-        <v>2137</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" s="7">
-        <v>4</v>
-      </c>
-      <c r="N36" s="7">
-        <v>2509</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>442</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>442</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1976</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="A34" t="s">
         <v>113</v>
       </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1976</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>25</v>
-      </c>
-      <c r="D39" s="7">
-        <v>13072</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="7">
-        <v>19</v>
-      </c>
-      <c r="I39" s="7">
-        <v>11287</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="7">
-        <v>44</v>
-      </c>
-      <c r="N39" s="7">
-        <v>24359</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
